--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zifotech-my.sharepoint.com/personal/matyas_juhasz_zifornd_com/Documents/Matyas/Python/PandasTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4DB114E441178AC67DF41E9693FFEC693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADD77E2-A1AA-4E13-8B05-150ED9997174}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4DB114E441178AC67DF41E9693FFEC693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DB071C-F136-49BF-82BC-1133EE6DB197}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="2918" windowWidth="21600" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -364,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -384,45 +395,377 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RAND()</f>
+        <v>0.4680723230064272</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:D2" ca="1" si="0">RAND()</f>
+        <v>0.93091225657179799</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81796680792437282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:D23" ca="1" si="1">RAND()</f>
+        <v>0.25689385150339783</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89977035913297876</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73002842948010349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98340053863837273</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74537039611386402</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62505440879247742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18526597352951402</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42689916553940221</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6000486800454633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94053365510891618</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28609765910548035</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81991921694618042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40704808865259223</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44181419323498772</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73359311967200325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7212352934009334</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94072302883401759</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2118210472761199E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45247053320008312</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45249484179746169</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8727885894969567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70616620509591166</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.2374086766679464E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33524249553829966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33556565869810229</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89286858645783607</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51688898823126805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4750300468383437E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25291421473081699</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89376615112478253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85584819802123313</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86933977316577704</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51612434667051355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43166889629739713</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49181498434171889</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54198523653349651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9344289984697961</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65635147433683672</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44148445859897867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38567437984495434</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40754313768477657</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88473506476957797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52906376965002</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1864609277524361E-3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29631994649625337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51303294473313898</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70241273273328952</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71113893442491261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55314424140999696</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50001718418700591</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21096493308948439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80079959110242094</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35941975501093348</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49468789808619651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89248054544108812</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38264100711809645</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89823136889656852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72054923707700502</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73684116197299876</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4742227190055861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57940808417944378</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16258307427624874</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82493856382688768</v>
       </c>
     </row>
   </sheetData>
@@ -434,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402B1D75-9B2D-4E20-B897-71BD6DBB20C4}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -400,15 +400,15 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.4680723230064272</v>
+        <v>0.44649182004776244</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:D2" ca="1" si="0">RAND()</f>
-        <v>0.93091225657179799</v>
+        <v>3.3401091649468806E-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81796680792437282</v>
+        <v>6.1903365920818354E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -417,15 +417,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:D23" ca="1" si="1">RAND()</f>
-        <v>0.25689385150339783</v>
+        <v>2.0303774799592889E-2</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89977035913297876</v>
+        <v>0.46235560352615668</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73002842948010349</v>
+        <v>0.22502431978941095</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -434,15 +434,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98340053863837273</v>
+        <v>0.60661564100159404</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74537039611386402</v>
+        <v>0.35866168442648017</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62505440879247742</v>
+        <v>0.73106416604965996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -451,15 +451,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18526597352951402</v>
+        <v>1.3306698137370288E-2</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42689916553940221</v>
+        <v>0.34280448596394797</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6000486800454633</v>
+        <v>0.97655786363757069</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -468,15 +468,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94053365510891618</v>
+        <v>0.56975991931848613</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28609765910548035</v>
+        <v>0.96724202056959097</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81991921694618042</v>
+        <v>0.15991782215452388</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -485,15 +485,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40704808865259223</v>
+        <v>0.30123155961188741</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44181419323498772</v>
+        <v>0.19529122465723514</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73359311967200325</v>
+        <v>0.5554871958513552</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -502,15 +502,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7212352934009334</v>
+        <v>0.33614131907953526</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94072302883401759</v>
+        <v>0.5124269681912178</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2118210472761199E-2</v>
+        <v>0.31311963701772383</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -519,15 +519,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45247053320008312</v>
+        <v>0.8292457572443549</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45249484179746169</v>
+        <v>0.30157484046758243</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8727885894969567</v>
+        <v>0.92623314318211236</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -536,15 +536,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70616620509591166</v>
+        <v>0.73998625027308651</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2374086766679464E-2</v>
+        <v>0.49287363191939437</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33524249553829966</v>
+        <v>0.52847443039110176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -553,15 +553,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33556565869810229</v>
+        <v>0.48024267125933651</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89286858645783607</v>
+        <v>3.3138825995352894E-2</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51688898823126805</v>
+        <v>0.7572076258942374</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -570,15 +570,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4750300468383437E-2</v>
+        <v>0.81562352128043869</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25291421473081699</v>
+        <v>0.35917317563446938</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89376615112478253</v>
+        <v>0.23426214139429324</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -587,15 +587,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85584819802123313</v>
+        <v>0.55191104810713487</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86933977316577704</v>
+        <v>0.12943125352475759</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51612434667051355</v>
+        <v>0.75329126352179676</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -604,15 +604,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43166889629739713</v>
+        <v>0.43044859456558893</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49181498434171889</v>
+        <v>0.36712540653742176</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54198523653349651</v>
+        <v>0.12386811093089778</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -621,15 +621,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9344289984697961</v>
+        <v>0.19828308082300006</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65635147433683672</v>
+        <v>0.1059899832142267</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44148445859897867</v>
+        <v>0.80555284733501065</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -638,15 +638,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38567437984495434</v>
+        <v>2.2283193117363043E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40754313768477657</v>
+        <v>0.69642448714517446</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88473506476957797</v>
+        <v>0.52441376790656891</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -655,15 +655,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52906376965002</v>
+        <v>0.55753387080103511</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1864609277524361E-3</v>
+        <v>0.72641281600064367</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29631994649625337</v>
+        <v>0.95275917187946535</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -672,15 +672,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51303294473313898</v>
+        <v>0.47795489140623282</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70241273273328952</v>
+        <v>0.27989419581607233</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71113893442491261</v>
+        <v>0.37600156183903033</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -689,15 +689,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55314424140999696</v>
+        <v>0.64909304687892033</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50001718418700591</v>
+        <v>0.46338839306002333</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21096493308948439</v>
+        <v>0.43416604164941075</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -706,15 +706,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80079959110242094</v>
+        <v>0.31238725858034855</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35941975501093348</v>
+        <v>0.97306141511931254</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49468789808619651</v>
+        <v>0.69212734749100735</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -723,15 +723,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89248054544108812</v>
+        <v>0.95407186349303941</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38264100711809645</v>
+        <v>0.92397220145180348</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89823136889656852</v>
+        <v>0.55264408065196613</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -740,15 +740,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72054923707700502</v>
+        <v>0.40956410420329725</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73684116197299876</v>
+        <v>0.62961515085714614</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4742227190055861</v>
+        <v>0.742193079226661</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -757,15 +757,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57940808417944378</v>
+        <v>0.4696866550205141</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16258307427624874</v>
+        <v>0.13860898204740513</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82493856382688768</v>
+        <v>0.80287107021017956</v>
       </c>
     </row>
   </sheetData>
